--- a/Simulator_results/Max sum of execution times.xlsx
+++ b/Simulator_results/Max sum of execution times.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27419"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genar\Proyectos\Paper-Binary-Black-Hole-Algorithm\Simulator_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D268CFB-CA06-4CDC-90B2-50A43AC21AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237ED29A-CE6F-4C2F-90AA-9B3765D0A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{65BC4A6A-5094-4899-991B-0EAD2F4FBCAE}"/>
   </bookViews>
@@ -36,15 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Smart</t>
+    <t>Iteration</t>
   </si>
   <si>
-    <t>Binpacking</t>
+    <t>ED</t>
   </si>
   <si>
-    <t>N-Stars</t>
+    <t>DBP</t>
+  </si>
+  <si>
+    <t>PELADO</t>
+  </si>
+  <si>
+    <t>SEQ</t>
   </si>
 </sst>
 </file>
@@ -113,9 +119,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF94144"/>
+      <color rgb="FF90BE6D"/>
+      <color rgb="FFF9C74F"/>
+      <color rgb="FF43AA8B"/>
+      <color rgb="FFFCBF49"/>
+      <color rgb="FFF77F00"/>
       <color rgb="FFD62828"/>
-      <color rgb="FFF77F00"/>
-      <color rgb="FFFCBF49"/>
     </mruColors>
   </colors>
   <extLst>
@@ -169,9 +179,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="F94144"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -190,7 +198,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="F77F00"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -209,7 +220,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FCBF49"/>
+                <a:srgbClr val="F9C74F"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -222,23 +233,40 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="90BE6D"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$A$33:$C$33</c:f>
+                <c:f>Sheet1!$B$33:$E$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
+                    <c:v>85015.051037975936</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>16687.153226153521</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>4873.6862446526629</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>13692.444736183112</c:v>
                   </c:pt>
                 </c:numCache>
@@ -246,17 +274,20 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$A$33:$C$33</c:f>
+                <c:f>Sheet1!$B$33:$E$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
+                    <c:v>85015.051037975936</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>16687.153226153521</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>4873.6862446526629</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>13692.444736183112</c:v>
                   </c:pt>
                 </c:numCache>
@@ -278,34 +309,40 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$C$1</c:f>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>N-Stars</c:v>
+                  <c:v>SEQ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Binpacking</c:v>
+                  <c:v>ED</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Smart</c:v>
+                  <c:v>DBP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PELADO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$32:$C$32</c:f>
+              <c:f>Sheet1!$B$32:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>2990284.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>196032.4349687995</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>171575.49661811872</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>136659.48476839394</c:v>
                 </c:pt>
               </c:numCache>
@@ -486,7 +523,2603 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" b="1"/>
-                  <a:t>Sum. of execution times</a:t>
+                  <a:t>Execution time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1" baseline="0"/>
+                  <a:t> (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245161663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> time (seconds)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="F94144"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>208860.982088399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180973.03096008301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191676.677469952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184906.62866054999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177349.099754011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209564.85080439801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217880.425998583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>177565.17612346599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192854.703273383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215391.83032727899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181598.59554366799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210969.19109966201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>193719.520342723</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165358.191813254</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>195830.71060146601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>192485.126550738</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>188083.62933190601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204062.693964306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>193412.96668909601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165838.13764788699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217991.87148665401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>185091.24054118001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180105.956238218</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200191.58594872299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>193484.96357717901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>190260.012640206</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>219492.27553722999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>201720.89255060599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>238127.47145375799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>206124.61004542201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-715E-405E-B285-F2941142444B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="F9C74F"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>166742.79882348599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161558.94209641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162259.88219206501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169791.11324439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170876.106512848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168253.17834164001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172882.48295372599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176788.45872017299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170900.21747436901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175338.35660582199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>178689.78025728001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175362.467567343</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169172.839302523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>167838.12536116701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175226.41285590199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176953.791027748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174416.97343340199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>171241.215358741</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>164366.14690210199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165792.138054932</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>173771.144106939</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>178965.33410323699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>168420.232860752</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>174189.64151048701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>169128.06180255499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>167538.460553688</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180472.26919831699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>176168.46256676901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>172488.096511699</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>171671.76824305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-715E-405E-B285-F2941142444B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PELADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="90BE6D"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>200821.92072227699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126689.325102028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127483.26462069299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132649.89923239601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132000.62548285801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130102.748368826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133018.45250136399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136354.37624898701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131602.794617757</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163100.630178133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136933.039325497</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135896.26798008199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>131854.23750219401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>129899.52740743299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135947.934326199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136908.92836397601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135262.49413437999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133628.11538554501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129286.420100177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129543.029619225</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135069.60644221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138045.58797855099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>131924.84817521999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139489</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130857.077022135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130726.188945305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137978.421728599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136016.82278768899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132010.95875208199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>138682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-715E-405E-B285-F2941142444B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="892668064"/>
+        <c:axId val="892669552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="892668064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892669552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="892669552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892668064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> time (seconds)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2907714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2814506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2829000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2957148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2968252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2921029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3011473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3077025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2976081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3057646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3105616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3082559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2941139</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2927092</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3060429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3081178</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3039540</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2981973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2874486</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2898588</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3025178</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3118225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2943086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3049368</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2945620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2908374</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3142859</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3065048</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3002663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2995628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-014F-4A9F-9D57-D99AEF94DC32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="F94144"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>208860.982088399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180973.03096008301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191676.677469952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184906.62866054999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177349.099754011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209564.85080439801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217880.425998583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>177565.17612346599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192854.703273383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215391.83032727899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181598.59554366799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210969.19109966201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>193719.520342723</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165358.191813254</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>195830.71060146601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>192485.126550738</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>188083.62933190601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204062.693964306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>193412.96668909601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165838.13764788699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217991.87148665401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>185091.24054118001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180105.956238218</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200191.58594872299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>193484.96357717901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>190260.012640206</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>219492.27553722999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>201720.89255060599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>238127.47145375799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>206124.61004542201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-014F-4A9F-9D57-D99AEF94DC32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="F9C74F"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>166742.79882348599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161558.94209641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162259.88219206501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169791.11324439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170876.106512848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168253.17834164001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172882.48295372599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176788.45872017299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170900.21747436901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175338.35660582199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>178689.78025728001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175362.467567343</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169172.839302523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>167838.12536116701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175226.41285590199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176953.791027748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174416.97343340199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>171241.215358741</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>164366.14690210199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165792.138054932</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>173771.144106939</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>178965.33410323699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>168420.232860752</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>174189.64151048701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>169128.06180255499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>167538.460553688</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180472.26919831699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>176168.46256676901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>172488.096511699</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>171671.76824305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-014F-4A9F-9D57-D99AEF94DC32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PELADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="90BE6D"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>200821.92072227699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126689.325102028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127483.26462069299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132649.89923239601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132000.62548285801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130102.748368826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133018.45250136399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136354.37624898701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131602.794617757</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163100.630178133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136933.039325497</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135896.26798008199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>131854.23750219401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>129899.52740743299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135947.934326199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136908.92836397601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135262.49413437999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133628.11538554501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129286.420100177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129543.029619225</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135069.60644221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138045.58797855099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>131924.84817521999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139489</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130857.077022135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130726.188945305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137978.421728599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136016.82278768899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132010.95875208199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>138682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-014F-4A9F-9D57-D99AEF94DC32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="892668064"/>
+        <c:axId val="892669552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="892668064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892669552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="892669552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892668064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ED</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PELADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-18F2-429A-8A67-B8BB50A8EA72}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F9C74F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-18F2-429A-8A67-B8BB50A8EA72}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="90BE6D"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-18F2-429A-8A67-B8BB50A8EA72}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$33:$E$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>16687.153226153521</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4873.6862446526629</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13692.444736183112</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$33:$E$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>16687.153226153521</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4873.6862446526629</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13692.444736183112</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ED</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PELADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>196032.4349687995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171575.49661811872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136659.48476839394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-18F2-429A-8A67-B8BB50A8EA72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1245161663"/>
+        <c:axId val="1245159183"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1245161663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Strategy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51916535433070865"/>
+              <c:y val="0.90645815106445027"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245159183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1245159183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Execution time</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" b="1" baseline="0"/>
@@ -645,6 +3278,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1148,17 +3901,1552 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>922563</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>574221</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>62593</xdr:rowOff>
@@ -1181,6 +5469,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9D4C79-6F28-02F9-B966-DEFC44A06863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71469</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D85A019-6493-4393-817E-30CC115664AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>965515</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>617173</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156662</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6F4722-5B35-4F3B-B63C-9CFAD5A53053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1506,386 +5906,580 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D310AF8-FC85-46EC-B2DB-552C68C529CD}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E32"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" customWidth="1"/>
-    <col min="2" max="2" width="27.07421875" customWidth="1"/>
-    <col min="3" max="3" width="24.53515625" customWidth="1"/>
-    <col min="5" max="5" width="23.3828125" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" customWidth="1"/>
+    <col min="4" max="4" width="27.07421875" customWidth="1"/>
+    <col min="5" max="5" width="24.53515625" customWidth="1"/>
+    <col min="7" max="7" width="23.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="B2">
+        <v>2907714</v>
+      </c>
+      <c r="C2">
+        <v>208860.982088399</v>
+      </c>
+      <c r="D2" s="1">
+        <v>166742.79882348599</v>
+      </c>
+      <c r="E2">
+        <v>200821.92072227699</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>208860.982088399</v>
-      </c>
-      <c r="B2" s="1">
-        <v>166742.79882348599</v>
-      </c>
-      <c r="C2">
-        <v>200821.92072227699</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2814506</v>
+      </c>
+      <c r="C3">
+        <v>180973.03096008301</v>
+      </c>
+      <c r="D3">
+        <v>161558.94209641</v>
+      </c>
+      <c r="E3" s="1">
+        <v>126689.325102028</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>180973.03096008301</v>
-      </c>
-      <c r="B3">
-        <v>161558.94209641</v>
-      </c>
-      <c r="C3" s="1">
-        <v>126689.325102028</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2829000</v>
+      </c>
+      <c r="C4">
+        <v>191676.677469952</v>
+      </c>
+      <c r="D4">
+        <v>162259.88219206501</v>
+      </c>
+      <c r="E4" s="1">
+        <v>127483.26462069299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>191676.677469952</v>
-      </c>
-      <c r="B4">
-        <v>162259.88219206501</v>
-      </c>
-      <c r="C4" s="1">
-        <v>127483.26462069299</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2957148</v>
+      </c>
+      <c r="C5">
+        <v>184906.62866054999</v>
+      </c>
+      <c r="D5">
+        <v>169791.11324439</v>
+      </c>
+      <c r="E5" s="1">
+        <v>132649.89923239601</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>184906.62866054999</v>
-      </c>
-      <c r="B5">
-        <v>169791.11324439</v>
-      </c>
-      <c r="C5" s="1">
-        <v>132649.89923239601</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2968252</v>
+      </c>
+      <c r="C6">
+        <v>177349.099754011</v>
+      </c>
+      <c r="D6">
+        <v>170876.106512848</v>
+      </c>
+      <c r="E6" s="1">
+        <v>132000.62548285801</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>177349.099754011</v>
-      </c>
-      <c r="B6">
-        <v>170876.106512848</v>
-      </c>
-      <c r="C6" s="1">
-        <v>132000.62548285801</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2921029</v>
+      </c>
+      <c r="C7">
+        <v>209564.85080439801</v>
+      </c>
+      <c r="D7">
+        <v>168253.17834164001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>130102.748368826</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>209564.85080439801</v>
-      </c>
-      <c r="B7">
-        <v>168253.17834164001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>130102.748368826</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3011473</v>
+      </c>
+      <c r="C8">
+        <v>217880.425998583</v>
+      </c>
+      <c r="D8">
+        <v>172882.48295372599</v>
+      </c>
+      <c r="E8" s="1">
+        <v>133018.45250136399</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>217880.425998583</v>
-      </c>
-      <c r="B8">
-        <v>172882.48295372599</v>
-      </c>
-      <c r="C8" s="1">
-        <v>133018.45250136399</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3077025</v>
+      </c>
+      <c r="C9">
+        <v>177565.17612346599</v>
+      </c>
+      <c r="D9">
+        <v>176788.45872017299</v>
+      </c>
+      <c r="E9" s="1">
+        <v>136354.37624898701</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>177565.17612346599</v>
-      </c>
-      <c r="B9">
-        <v>176788.45872017299</v>
-      </c>
-      <c r="C9" s="1">
-        <v>136354.37624898701</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2976081</v>
+      </c>
+      <c r="C10">
+        <v>192854.703273383</v>
+      </c>
+      <c r="D10">
+        <v>170900.21747436901</v>
+      </c>
+      <c r="E10" s="1">
+        <v>131602.794617757</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>192854.703273383</v>
-      </c>
-      <c r="B10">
-        <v>170900.21747436901</v>
-      </c>
-      <c r="C10" s="1">
-        <v>131602.794617757</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3057646</v>
+      </c>
+      <c r="C11">
+        <v>215391.83032727899</v>
+      </c>
+      <c r="D11">
+        <v>175338.35660582199</v>
+      </c>
+      <c r="E11" s="1">
+        <v>163100.630178133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>215391.83032727899</v>
-      </c>
-      <c r="B11">
-        <v>175338.35660582199</v>
-      </c>
-      <c r="C11" s="1">
-        <v>163100.630178133</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3105616</v>
+      </c>
+      <c r="C12">
+        <v>181598.59554366799</v>
+      </c>
+      <c r="D12">
+        <v>178689.78025728001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>136933.039325497</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>181598.59554366799</v>
-      </c>
-      <c r="B12">
-        <v>178689.78025728001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>136933.039325497</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3082559</v>
+      </c>
+      <c r="C13">
+        <v>210969.19109966201</v>
+      </c>
+      <c r="D13">
+        <v>175362.467567343</v>
+      </c>
+      <c r="E13" s="1">
+        <v>135896.26798008199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>210969.19109966201</v>
-      </c>
-      <c r="B13">
-        <v>175362.467567343</v>
-      </c>
-      <c r="C13" s="1">
-        <v>135896.26798008199</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2941139</v>
+      </c>
+      <c r="C14">
+        <v>193719.520342723</v>
+      </c>
+      <c r="D14">
+        <v>169172.839302523</v>
+      </c>
+      <c r="E14" s="1">
+        <v>131854.23750219401</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>193719.520342723</v>
-      </c>
-      <c r="B14">
-        <v>169172.839302523</v>
-      </c>
-      <c r="C14" s="1">
-        <v>131854.23750219401</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2927092</v>
+      </c>
+      <c r="C15">
+        <v>165358.191813254</v>
+      </c>
+      <c r="D15">
+        <v>167838.12536116701</v>
+      </c>
+      <c r="E15" s="1">
+        <v>129899.52740743299</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>165358.191813254</v>
-      </c>
-      <c r="B15">
-        <v>167838.12536116701</v>
-      </c>
-      <c r="C15" s="1">
-        <v>129899.52740743299</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3060429</v>
+      </c>
+      <c r="C16">
+        <v>195830.71060146601</v>
+      </c>
+      <c r="D16">
+        <v>175226.41285590199</v>
+      </c>
+      <c r="E16" s="1">
+        <v>135947.934326199</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>195830.71060146601</v>
-      </c>
-      <c r="B16">
-        <v>175226.41285590199</v>
-      </c>
-      <c r="C16" s="1">
-        <v>135947.934326199</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3081178</v>
+      </c>
+      <c r="C17">
+        <v>192485.126550738</v>
+      </c>
+      <c r="D17">
+        <v>176953.791027748</v>
+      </c>
+      <c r="E17" s="1">
+        <v>136908.92836397601</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>192485.126550738</v>
-      </c>
-      <c r="B17">
-        <v>176953.791027748</v>
-      </c>
-      <c r="C17" s="1">
-        <v>136908.92836397601</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3039540</v>
+      </c>
+      <c r="C18">
+        <v>188083.62933190601</v>
+      </c>
+      <c r="D18">
+        <v>174416.97343340199</v>
+      </c>
+      <c r="E18" s="1">
+        <v>135262.49413437999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>188083.62933190601</v>
-      </c>
-      <c r="B18">
-        <v>174416.97343340199</v>
-      </c>
-      <c r="C18" s="1">
-        <v>135262.49413437999</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2981973</v>
+      </c>
+      <c r="C19">
+        <v>204062.693964306</v>
+      </c>
+      <c r="D19">
+        <v>171241.215358741</v>
+      </c>
+      <c r="E19" s="1">
+        <v>133628.11538554501</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>204062.693964306</v>
-      </c>
-      <c r="B19">
-        <v>171241.215358741</v>
-      </c>
-      <c r="C19" s="1">
-        <v>133628.11538554501</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2874486</v>
+      </c>
+      <c r="C20">
+        <v>193412.96668909601</v>
+      </c>
+      <c r="D20">
+        <v>164366.14690210199</v>
+      </c>
+      <c r="E20" s="1">
+        <v>129286.420100177</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>193412.96668909601</v>
-      </c>
-      <c r="B20">
-        <v>164366.14690210199</v>
-      </c>
-      <c r="C20" s="1">
-        <v>129286.420100177</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2898588</v>
+      </c>
+      <c r="C21">
+        <v>165838.13764788699</v>
+      </c>
+      <c r="D21">
+        <v>165792.138054932</v>
+      </c>
+      <c r="E21" s="1">
+        <v>129543.029619225</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>165838.13764788699</v>
-      </c>
-      <c r="B21">
-        <v>165792.138054932</v>
-      </c>
-      <c r="C21" s="1">
-        <v>129543.029619225</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3025178</v>
+      </c>
+      <c r="C22">
+        <v>217991.87148665401</v>
+      </c>
+      <c r="D22">
+        <v>173771.144106939</v>
+      </c>
+      <c r="E22" s="1">
+        <v>135069.60644221</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>217991.87148665401</v>
-      </c>
-      <c r="B22">
-        <v>173771.144106939</v>
-      </c>
-      <c r="C22" s="1">
-        <v>135069.60644221</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3118225</v>
+      </c>
+      <c r="C23">
+        <v>185091.24054118001</v>
+      </c>
+      <c r="D23">
+        <v>178965.33410323699</v>
+      </c>
+      <c r="E23" s="1">
+        <v>138045.58797855099</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>185091.24054118001</v>
-      </c>
-      <c r="B23">
-        <v>178965.33410323699</v>
-      </c>
-      <c r="C23" s="1">
-        <v>138045.58797855099</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2943086</v>
+      </c>
+      <c r="C24">
+        <v>180105.956238218</v>
+      </c>
+      <c r="D24">
+        <v>168420.232860752</v>
+      </c>
+      <c r="E24" s="1">
+        <v>131924.84817521999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>180105.956238218</v>
-      </c>
-      <c r="B24">
-        <v>168420.232860752</v>
-      </c>
-      <c r="C24" s="1">
-        <v>131924.84817521999</v>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3049368</v>
+      </c>
+      <c r="C25">
+        <v>200191.58594872299</v>
+      </c>
+      <c r="D25">
+        <v>174189.64151048701</v>
+      </c>
+      <c r="E25" s="1">
+        <v>139489</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>200191.58594872299</v>
-      </c>
-      <c r="B25">
-        <v>174189.64151048701</v>
-      </c>
-      <c r="C25" s="1">
-        <v>139489</v>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2945620</v>
+      </c>
+      <c r="C26">
+        <v>193484.96357717901</v>
+      </c>
+      <c r="D26">
+        <v>169128.06180255499</v>
+      </c>
+      <c r="E26" s="1">
+        <v>130857.077022135</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>193484.96357717901</v>
-      </c>
-      <c r="B26">
-        <v>169128.06180255499</v>
-      </c>
-      <c r="C26" s="1">
-        <v>130857.077022135</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2908374</v>
+      </c>
+      <c r="C27">
+        <v>190260.012640206</v>
+      </c>
+      <c r="D27">
+        <v>167538.460553688</v>
+      </c>
+      <c r="E27" s="1">
+        <v>130726.188945305</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>190260.012640206</v>
-      </c>
-      <c r="B27">
-        <v>167538.460553688</v>
-      </c>
-      <c r="C27" s="1">
-        <v>130726.188945305</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3142859</v>
+      </c>
+      <c r="C28">
+        <v>219492.27553722999</v>
+      </c>
+      <c r="D28">
+        <v>180472.26919831699</v>
+      </c>
+      <c r="E28" s="1">
+        <v>137978.421728599</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>219492.27553722999</v>
-      </c>
-      <c r="B28">
-        <v>180472.26919831699</v>
-      </c>
-      <c r="C28" s="1">
-        <v>137978.421728599</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3065048</v>
+      </c>
+      <c r="C29">
+        <v>201720.89255060599</v>
+      </c>
+      <c r="D29">
+        <v>176168.46256676901</v>
+      </c>
+      <c r="E29" s="1">
+        <v>136016.82278768899</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>201720.89255060599</v>
-      </c>
-      <c r="B29">
-        <v>176168.46256676901</v>
-      </c>
-      <c r="C29" s="1">
-        <v>136016.82278768899</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3002663</v>
+      </c>
+      <c r="C30">
+        <v>238127.47145375799</v>
+      </c>
+      <c r="D30">
+        <v>172488.096511699</v>
+      </c>
+      <c r="E30" s="1">
+        <v>132010.95875208199</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>238127.47145375799</v>
-      </c>
-      <c r="B30">
-        <v>172488.096511699</v>
-      </c>
-      <c r="C30" s="1">
-        <v>132010.95875208199</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2995628</v>
+      </c>
+      <c r="C31">
+        <v>206124.61004542201</v>
+      </c>
+      <c r="D31">
+        <v>171671.76824305</v>
+      </c>
+      <c r="E31" s="1">
+        <v>138682</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>206124.61004542201</v>
-      </c>
-      <c r="B31">
-        <v>171671.76824305</v>
-      </c>
-      <c r="C31" s="1">
-        <v>138682</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
-        <f>AVERAGE(A2:A31)</f>
-        <v>196032.4349687995</v>
-      </c>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B32" s="2">
         <f>AVERAGE(B2:B31)</f>
-        <v>171575.49661811872</v>
+        <v>2990284.1</v>
       </c>
       <c r="C32" s="2">
         <f>AVERAGE(C2:C31)</f>
+        <v>196032.4349687995</v>
+      </c>
+      <c r="D32" s="2">
+        <f>AVERAGE(D2:D31)</f>
+        <v>171575.49661811872</v>
+      </c>
+      <c r="E32" s="2">
+        <f>AVERAGE(E2:E31)</f>
         <v>136659.48476839394</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
-        <f t="shared" ref="A33" si="0">STDEV(A2:A31)</f>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="3">
+        <f t="shared" ref="B33:C33" si="0">STDEV(B2:B31)</f>
+        <v>85015.051037975936</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
         <v>16687.153226153521</v>
       </c>
-      <c r="B33" s="3">
-        <f>STDEV(B2:B31)</f>
+      <c r="D33" s="3">
+        <f>STDEV(D2:D31)</f>
         <v>4873.6862446526629</v>
       </c>
-      <c r="C33" s="3">
-        <f>STDEV(C2:C31)</f>
+      <c r="E33" s="3">
+        <f>STDEV(E2:E31)</f>
         <v>13692.444736183112</v>
       </c>
     </row>
